--- a/data/trans_dic/P16A03-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,67</t>
+          <t>3,83; 8,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,98</t>
+          <t>0,43; 2,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,74</t>
+          <t>0,46; 2,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,84</t>
+          <t>1,28; 3,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,48</t>
+          <t>2,95; 7,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,87</t>
+          <t>4,24; 9,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,42</t>
+          <t>1,54; 5,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,94</t>
+          <t>3,42; 7,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,33</t>
+          <t>3,85; 7,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,0</t>
+          <t>2,25; 5,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,41</t>
+          <t>1,19; 3,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,84</t>
+          <t>2,56; 4,67</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,76</t>
+          <t>0,24; 2,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,76</t>
+          <t>0,46; 3,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,21</t>
+          <t>0,53; 2,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,74</t>
+          <t>0,54; 2,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,0</t>
+          <t>2,14; 6,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 11,2</t>
+          <t>4,9; 11,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,34</t>
+          <t>2,82; 7,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,08</t>
+          <t>2,14; 5,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,77</t>
+          <t>1,35; 3,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,21</t>
+          <t>2,75; 6,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,64</t>
+          <t>1,91; 4,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,29</t>
+          <t>1,65; 3,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,1</t>
+          <t>1,46; 4,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,67</t>
+          <t>0,8; 3,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,08</t>
+          <t>0,35; 2,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,54</t>
+          <t>0,44; 3,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 12,87</t>
+          <t>4,39; 12,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,27</t>
+          <t>2,12; 7,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 10,48</t>
+          <t>2,73; 10,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 14,5</t>
+          <t>6,4; 13,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,38</t>
+          <t>2,55; 5,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,92</t>
+          <t>1,56; 4,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,45</t>
+          <t>1,19; 3,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,14</t>
+          <t>1,32; 5,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,43</t>
+          <t>0,97; 2,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,81</t>
+          <t>0,61; 1,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,61</t>
+          <t>1,01; 2,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,27</t>
+          <t>1,68; 3,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,08</t>
+          <t>3,12; 6,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,13</t>
+          <t>4,35; 8,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,61</t>
+          <t>2,61; 5,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,13</t>
+          <t>1,69; 5,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,4</t>
+          <t>1,98; 3,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,88</t>
+          <t>2,26; 3,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,45</t>
+          <t>1,95; 3,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,73</t>
+          <t>2,01; 3,75</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,57</t>
+          <t>1,03; 4,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,66</t>
+          <t>0,58; 2,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,26</t>
+          <t>0,56; 2,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,46</t>
+          <t>1,65; 4,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,67</t>
+          <t>2,19; 5,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,01</t>
+          <t>5,2; 8,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,71</t>
+          <t>2,65; 5,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,91</t>
+          <t>3,91; 6,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,43</t>
+          <t>2,15; 4,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,93</t>
+          <t>3,47; 5,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,84</t>
+          <t>1,95; 3,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,55</t>
+          <t>3,53; 5,39</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,96</t>
+          <t>0,35; 2,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,88</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 5,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,48</t>
+          <t>5,54; 8,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,61</t>
+          <t>3,72; 6,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,88</t>
+          <t>3,24; 5,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,36</t>
+          <t>4,32; 7,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 6,88</t>
+          <t>4,59; 6,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,63</t>
+          <t>3,25; 5,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,6</t>
+          <t>2,51; 4,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,87</t>
+          <t>3,23; 5,7</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,84</t>
+          <t>1,71; 2,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,82</t>
+          <t>0,96; 1,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,73</t>
+          <t>0,92; 1,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,61</t>
+          <t>1,53; 2,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,56; 6,07</t>
+          <t>4,59; 6,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,19; 6,87</t>
+          <t>5,25; 6,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 4,84</t>
+          <t>3,52; 4,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 5,62</t>
+          <t>3,98; 5,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,29</t>
+          <t>3,34; 4,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,19</t>
+          <t>3,27; 4,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,15</t>
+          <t>2,36; 3,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,98</t>
+          <t>2,97; 3,93</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido reconstituyentes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27559</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5669</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5284</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11711</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14582</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20501</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10626</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21859</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42141</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26170</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15909</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33570</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18143; 41968</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1890; 12928</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1955; 11853</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6476; 19854</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9053; 23552</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13340; 30739</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5341; 18227</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15293; 31809</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30041; 57155</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16946; 38205</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9241; 26134</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24412; 44496</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3488</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6225</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5904</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6150</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13803</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25570</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17161</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13020</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17291</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31795</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23065</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19170</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>882; 10013</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1918; 16431</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1990; 11216</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2436; 12453</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7951; 22837</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16382; 38186</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10484; 28524</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8206; 19216</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9961; 28445</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20690; 46269</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14346; 33160</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13754; 27674</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13739</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11413</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5053</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12107</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12921</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10825</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9499</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15980</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26660</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22238</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14551</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28087</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7913; 22606</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4987; 21292</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1808; 11538</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2936; 22754</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7368; 21577</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5456; 19747</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4543; 17179</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10683; 23277</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18118; 38032</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13805; 35569</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8213; 24145</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11022; 44014</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19428</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12368</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18633</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>24136</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31939</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>45794</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32912</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36230</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>51367</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>58162</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51546</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60366</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11961; 28779</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7069; 21332</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11567; 29638</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17424; 34063</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22288; 43862</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>33294; 61480</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21577; 46515</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16473; 49681</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>38689; 68040</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>43419; 74253</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38525; 67123</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>40486; 75514</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8124</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6965</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7538</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12966</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20456</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>52275</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>29632</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45321</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28579</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>59240</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>37170</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>58287</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3592; 16247</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2959; 13777</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3505; 14176</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7796; 20380</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12447; 30613</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>39428; 67356</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19552; 42133</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>32812; 57131</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19701; 40557</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>44084; 75784</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>26565; 50931</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>46333; 70801</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2916</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>85986</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>56040</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>47255</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>42107</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>86924</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>58956</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>48187</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>43913</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4717</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>934; 7765</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5275</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14342</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>69238; 105363</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>41153; 72969</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>35025; 63394</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>32804; 55523</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>71056; 105947</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>44614; 75740</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>34361; 61661</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>32277; 57047</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>73277</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>45556</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>43343</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>68876</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>179686</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>211005</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>147085</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>174516</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>252963</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>256560</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>190428</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>243392</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>55918; 92869</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>32686; 61314</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>31316; 57526</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>51697; 86880</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>154944; 206636</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>185728; 243409</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>124329; 174909</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>142100; 199609</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>222161; 286139</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>227436; 291868</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>163107; 219410</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>206178; 273133</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A03-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
